--- a/working/etterson/seed.fruit.F.xlsx
+++ b/working/etterson/seed.fruit.F.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorjaelliott/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorjaelliott/Desktop/Repositories/LCAdata/working/etterson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F111B06-C2AA-934E-BF31-833519C35EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFEA4271-9B5A-D743-9B92-914D8878D833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5980" yWindow="2800" windowWidth="27240" windowHeight="16440" xr2:uid="{1A2F8C7D-BE04-BF49-92E3-CCC89CE1EDB6}"/>
+    <workbookView xWindow="1560" yWindow="500" windowWidth="27240" windowHeight="16300" xr2:uid="{1A2F8C7D-BE04-BF49-92E3-CCC89CE1EDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>cross</t>
   </si>
@@ -62,13 +62,16 @@
     <t>P1</t>
   </si>
   <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
     <t>P2</t>
+  </si>
+  <si>
+    <t>F1a</t>
+  </si>
+  <si>
+    <t>F1b</t>
+  </si>
+  <si>
+    <t>F2a</t>
   </si>
 </sst>
 </file>
@@ -423,7 +426,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -464,7 +467,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>8.1875</v>
@@ -475,7 +478,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>7.625</v>
@@ -486,7 +489,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>6.1875</v>
@@ -497,7 +500,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>6.6875</v>

--- a/working/etterson/seed.fruit.F.xlsx
+++ b/working/etterson/seed.fruit.F.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11009"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorjaelliott/Desktop/Repositories/LCAdata/working/etterson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFEA4271-9B5A-D743-9B92-914D8878D833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227CDCE7-3B49-1E45-BE0A-C8F6919BAFA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="500" windowWidth="27240" windowHeight="16300" xr2:uid="{1A2F8C7D-BE04-BF49-92E3-CCC89CE1EDB6}"/>
+    <workbookView xWindow="1560" yWindow="500" windowWidth="27240" windowHeight="15880" xr2:uid="{1A2F8C7D-BE04-BF49-92E3-CCC89CE1EDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -464,6 +464,9 @@
       <c r="C2">
         <v>0.58888888888888891</v>
       </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -475,6 +478,9 @@
       <c r="C3">
         <v>1.4444444444444444</v>
       </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -486,6 +492,9 @@
       <c r="C4">
         <v>1.1666666666666667</v>
       </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -497,6 +506,9 @@
       <c r="C5">
         <v>0.5</v>
       </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -507,6 +519,9 @@
       </c>
       <c r="C6">
         <v>0.46666666666666662</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
